--- a/fermentation_insights/TRY_results/spearman_TAL_glucose.xlsx
+++ b/fermentation_insights/TRY_results/spearman_TAL_glucose.xlsx
@@ -585,100 +585,100 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.4852111012111012</v>
+        <v>-0.4466242946242946</v>
       </c>
       <c r="D2">
-        <v>-0.3337222777222777</v>
+        <v>-0.2066727506727507</v>
       </c>
       <c r="E2">
-        <v>-0.05210911610911611</v>
+        <v>-0.2045224565224565</v>
       </c>
       <c r="F2">
-        <v>0.3642365682365682</v>
+        <v>0.2470701070701071</v>
       </c>
       <c r="G2">
-        <v>-0.02507527307527307</v>
+        <v>-0.0012000852000852</v>
       </c>
       <c r="H2">
-        <v>-0.1051430371430371</v>
+        <v>-0.111951447951448</v>
       </c>
       <c r="I2">
-        <v>0.01723168123168123</v>
+        <v>0.01837317037317037</v>
       </c>
       <c r="J2">
-        <v>-0.05186810786810787</v>
+        <v>-0.03254758454758454</v>
       </c>
       <c r="K2">
-        <v>-0.05858000258000258</v>
+        <v>-0.06111574911574912</v>
       </c>
       <c r="L2">
-        <v>0.02789178389178389</v>
+        <v>0.0434986274986275</v>
       </c>
       <c r="M2">
-        <v>-0.0724040404040404</v>
+        <v>-0.08502158502158502</v>
       </c>
       <c r="N2">
-        <v>-0.1214857934857935</v>
+        <v>-0.04001662001662001</v>
       </c>
       <c r="O2">
-        <v>0.05593050793050793</v>
+        <v>-0.003687771687771688</v>
       </c>
       <c r="P2">
-        <v>0.04375842775842776</v>
+        <v>0.03211544011544012</v>
       </c>
       <c r="Q2">
-        <v>0.09556454356454357</v>
+        <v>0.1524678444678445</v>
       </c>
       <c r="R2">
-        <v>-0.1913765153765154</v>
+        <v>-0.1184824424824425</v>
       </c>
       <c r="S2">
-        <v>0.01648559248559249</v>
+        <v>0.03990617190617191</v>
       </c>
       <c r="T2">
-        <v>-0.02965022965022965</v>
+        <v>-0.04491724491724491</v>
       </c>
       <c r="U2">
-        <v>-0.6608866928866929</v>
+        <v>-0.6933072813072813</v>
       </c>
       <c r="V2">
-        <v>0.0126030846030846</v>
+        <v>0.006684834684834685</v>
       </c>
       <c r="W2">
-        <v>0.005066345066345066</v>
+        <v>0.002632910632910633</v>
       </c>
       <c r="X2">
-        <v>0.1117026397026397</v>
+        <v>0.272984432984433</v>
       </c>
       <c r="Y2">
-        <v>0.08397081597081597</v>
+        <v>0.1732185052185052</v>
       </c>
       <c r="Z2">
-        <v>-0.3486568926568926</v>
+        <v>-0.2060967740967741</v>
       </c>
       <c r="AA2">
-        <v>-0.1786960906960907</v>
+        <v>-0.3005124965124965</v>
       </c>
       <c r="AB2">
-        <v>0.0147958947958948</v>
+        <v>0.006867870867870868</v>
       </c>
       <c r="AC2">
-        <v>0.04828198828198828</v>
+        <v>0.07346618546618547</v>
       </c>
       <c r="AD2">
-        <v>0.03099211899211899</v>
+        <v>0.04356481956481956</v>
       </c>
       <c r="AE2">
-        <v>0.03122062322062322</v>
+        <v>0.0216989136989137</v>
       </c>
       <c r="AF2">
-        <v>-0.0262946902946903</v>
+        <v>-0.05136515136515137</v>
       </c>
       <c r="AG2">
-        <v>-0.05386134586134586</v>
+        <v>-0.05188560388560388</v>
       </c>
       <c r="AH2">
-        <v>-0.01684709284709285</v>
+        <v>-0.03433699033699034</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -686,103 +686,103 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.4852111012111012</v>
+        <v>-0.4466242946242946</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.05516932316932317</v>
+        <v>-0.1217581217581218</v>
       </c>
       <c r="E3">
-        <v>-0.03717304917304917</v>
+        <v>0.04279110679110679</v>
       </c>
       <c r="F3">
-        <v>0.103007227007227</v>
+        <v>0.103982071982072</v>
       </c>
       <c r="G3">
-        <v>-0.01131586731586732</v>
+        <v>-0.01102891102891103</v>
       </c>
       <c r="H3">
-        <v>-0.007934323934323934</v>
+        <v>-0.01504866304866305</v>
       </c>
       <c r="I3">
-        <v>0.5721514881514882</v>
+        <v>0.6254840054840055</v>
       </c>
       <c r="J3">
-        <v>0.003264411264411264</v>
+        <v>-0.005405429405429405</v>
       </c>
       <c r="K3">
-        <v>0.01269264069264069</v>
+        <v>0.01652344052344052</v>
       </c>
       <c r="L3">
-        <v>0.01294648894648895</v>
+        <v>0.02447522447522447</v>
       </c>
       <c r="M3">
-        <v>-0.002399450399450399</v>
+        <v>0.007416655416655417</v>
       </c>
       <c r="N3">
-        <v>-0.02535296535296535</v>
+        <v>-0.03071893871893872</v>
       </c>
       <c r="O3">
-        <v>-0.09559711159711159</v>
+        <v>-0.001924753924753925</v>
       </c>
       <c r="P3">
-        <v>-0.005925365925365926</v>
+        <v>0.006542262542262542</v>
       </c>
       <c r="Q3">
-        <v>0.1692830532830533</v>
+        <v>0.1621729621729622</v>
       </c>
       <c r="R3">
-        <v>-0.003667083667083667</v>
+        <v>-0.01370516570516571</v>
       </c>
       <c r="S3">
-        <v>-0.06297709497709497</v>
+        <v>-0.06995112995112995</v>
       </c>
       <c r="T3">
-        <v>-0.03596639996639996</v>
+        <v>-0.02478898878898879</v>
       </c>
       <c r="U3">
-        <v>0.5764818484818485</v>
+        <v>0.6153921033921034</v>
       </c>
       <c r="V3">
-        <v>0.03668725268725269</v>
+        <v>0.03971375171375172</v>
       </c>
       <c r="W3">
-        <v>-0.02537154137154137</v>
+        <v>-0.03259280059280059</v>
       </c>
       <c r="X3">
-        <v>-0.3708013068013068</v>
+        <v>-0.3522625722625722</v>
       </c>
       <c r="Y3">
-        <v>0.02744409944409944</v>
+        <v>0.02797125997125997</v>
       </c>
       <c r="Z3">
-        <v>-0.1146897666897667</v>
+        <v>-0.1168766008766009</v>
       </c>
       <c r="AA3">
-        <v>-0.09247707247707247</v>
+        <v>-0.1479546879546879</v>
       </c>
       <c r="AB3">
-        <v>0.01913659913659914</v>
+        <v>0.02287461487461488</v>
       </c>
       <c r="AC3">
-        <v>-0.01936459936459936</v>
+        <v>-0.03198708798708799</v>
       </c>
       <c r="AD3">
-        <v>-0.03401167001167001</v>
+        <v>-0.02373574773574774</v>
       </c>
       <c r="AE3">
-        <v>0.01255830055830056</v>
+        <v>0.02640997440997441</v>
       </c>
       <c r="AF3">
-        <v>-0.01251621651621652</v>
+        <v>-0.008877872877872877</v>
       </c>
       <c r="AG3">
-        <v>-0.06985108585108585</v>
+        <v>-0.07418126618126618</v>
       </c>
       <c r="AH3">
-        <v>-0.1007503847503848</v>
+        <v>-0.113012297012297</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -790,103 +790,103 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.3337222777222777</v>
+        <v>-0.2066727506727507</v>
       </c>
       <c r="C4">
-        <v>-0.05516932316932317</v>
+        <v>-0.1217581217581218</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01466439866439866</v>
+        <v>0.1670581070581071</v>
       </c>
       <c r="F4">
-        <v>-0.1785938025938026</v>
+        <v>-0.1636169716169716</v>
       </c>
       <c r="G4">
-        <v>0.01631424431424431</v>
+        <v>0.01127919527919528</v>
       </c>
       <c r="H4">
-        <v>-0.05125347925347926</v>
+        <v>-0.04754546354546355</v>
       </c>
       <c r="I4">
-        <v>-0.09876438276438276</v>
+        <v>-0.1108837228837229</v>
       </c>
       <c r="J4">
-        <v>0.05453910653910654</v>
+        <v>0.0480957120957121</v>
       </c>
       <c r="K4">
-        <v>0.0184004584004584</v>
+        <v>0.02506148506148506</v>
       </c>
       <c r="L4">
-        <v>0.02858564858564859</v>
+        <v>0.01992117192117192</v>
       </c>
       <c r="M4">
-        <v>0.159977763977764</v>
+        <v>0.1712510912510913</v>
       </c>
       <c r="N4">
-        <v>0.6554935874935875</v>
+        <v>0.6556420156420156</v>
       </c>
       <c r="O4">
-        <v>0.0207021567021567</v>
+        <v>-0.002708270708270708</v>
       </c>
       <c r="P4">
-        <v>0.0187993267993268</v>
+        <v>0.01345911745911746</v>
       </c>
       <c r="Q4">
-        <v>0.03320844920844921</v>
+        <v>0.0140989340989341</v>
       </c>
       <c r="R4">
-        <v>0.3947721587721588</v>
+        <v>0.385039537039537</v>
       </c>
       <c r="S4">
-        <v>0.4703534183534184</v>
+        <v>0.4861415821415822</v>
       </c>
       <c r="T4">
-        <v>-0.0002388602388602389</v>
+        <v>0.004348072348072348</v>
       </c>
       <c r="U4">
-        <v>0.04041482841482841</v>
+        <v>0.04086482886482887</v>
       </c>
       <c r="V4">
-        <v>-0.0298011658011658</v>
+        <v>-0.02620437820437821</v>
       </c>
       <c r="W4">
-        <v>0.01336513336513337</v>
+        <v>0.006740430740430741</v>
       </c>
       <c r="X4">
-        <v>0.03383342183342183</v>
+        <v>-0.003092895092895093</v>
       </c>
       <c r="Y4">
-        <v>0.03306005706005706</v>
+        <v>0.006896538896538897</v>
       </c>
       <c r="Z4">
-        <v>0.1761211641211641</v>
+        <v>0.1557738477738478</v>
       </c>
       <c r="AA4">
-        <v>0.1643984243984244</v>
+        <v>0.2216025416025416</v>
       </c>
       <c r="AB4">
-        <v>0.1166104646104646</v>
+        <v>0.1337573897573898</v>
       </c>
       <c r="AC4">
-        <v>-0.006536778536778537</v>
+        <v>-0.01274360474360474</v>
       </c>
       <c r="AD4">
-        <v>-0.01885821085821086</v>
+        <v>-0.01807530607530608</v>
       </c>
       <c r="AE4">
-        <v>-0.008335304335304335</v>
+        <v>-0.004682752682752683</v>
       </c>
       <c r="AF4">
-        <v>0.02870760470760471</v>
+        <v>0.04294576294576295</v>
       </c>
       <c r="AG4">
-        <v>-0.0468974988974989</v>
+        <v>-0.05239133239133239</v>
       </c>
       <c r="AH4">
-        <v>0.04208681408681408</v>
+        <v>0.04536582936582936</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -894,103 +894,103 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.05210911610911611</v>
+        <v>-0.2045224565224565</v>
       </c>
       <c r="C5">
-        <v>-0.03717304917304917</v>
+        <v>0.04279110679110679</v>
       </c>
       <c r="D5">
-        <v>0.01466439866439866</v>
+        <v>0.1670581070581071</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.4913779073779074</v>
+        <v>-0.5283956643956644</v>
       </c>
       <c r="G5">
-        <v>0.069995961995962</v>
+        <v>0.06164925764925765</v>
       </c>
       <c r="H5">
-        <v>0.007219459219459219</v>
+        <v>0.01056975456975457</v>
       </c>
       <c r="I5">
-        <v>0.1793568593568594</v>
+        <v>0.191043587043587</v>
       </c>
       <c r="J5">
-        <v>0.02329358329358329</v>
+        <v>0.01628027228027228</v>
       </c>
       <c r="K5">
-        <v>0.02986756186756187</v>
+        <v>0.01784297384297384</v>
       </c>
       <c r="L5">
-        <v>0.006926730926730927</v>
+        <v>-0.004117516117516117</v>
       </c>
       <c r="M5">
-        <v>0.04143871743871744</v>
+        <v>0.04695346695346695</v>
       </c>
       <c r="N5">
-        <v>-0.03490693090693091</v>
+        <v>-0.00924003324003324</v>
       </c>
       <c r="O5">
-        <v>-0.107997695997696</v>
+        <v>-0.002883434883434883</v>
       </c>
       <c r="P5">
-        <v>-0.002895206895206895</v>
+        <v>-0.01974304374304374</v>
       </c>
       <c r="Q5">
-        <v>0.02191256191256191</v>
+        <v>0.0405954045954046</v>
       </c>
       <c r="R5">
-        <v>-0.005146577146577147</v>
+        <v>0.00681004281004281</v>
       </c>
       <c r="S5">
-        <v>0.05416066216066216</v>
+        <v>0.05063731463731463</v>
       </c>
       <c r="T5">
-        <v>0.07223266823266823</v>
+        <v>0.06928694128694128</v>
       </c>
       <c r="U5">
-        <v>0.1778390738390739</v>
+        <v>0.1606807846807847</v>
       </c>
       <c r="V5">
-        <v>-0.01302808902808903</v>
+        <v>-0.02045904845904846</v>
       </c>
       <c r="W5">
-        <v>-0.01503194703194703</v>
+        <v>-0.01273039273039273</v>
       </c>
       <c r="X5">
-        <v>0.06474670074670075</v>
+        <v>-0.06680645480645481</v>
       </c>
       <c r="Y5">
-        <v>0.08388019188019188</v>
+        <v>0.07281280881280881</v>
       </c>
       <c r="Z5">
-        <v>0.4828782028782029</v>
+        <v>0.5297654057654058</v>
       </c>
       <c r="AA5">
-        <v>0.4161437001437002</v>
+        <v>0.5965349125349125</v>
       </c>
       <c r="AB5">
-        <v>0.1085825285825286</v>
+        <v>0.1129309009309009</v>
       </c>
       <c r="AC5">
-        <v>-0.04313128313128313</v>
+        <v>-0.03561824361824362</v>
       </c>
       <c r="AD5">
-        <v>0.007507663507663508</v>
+        <v>-0.01127618327618328</v>
       </c>
       <c r="AE5">
-        <v>0.00625012225012225</v>
+        <v>0.02297397497397497</v>
       </c>
       <c r="AF5">
-        <v>0.08239215439215439</v>
+        <v>0.08106758106758107</v>
       </c>
       <c r="AG5">
-        <v>-0.04485574485574485</v>
+        <v>-0.06595367395367395</v>
       </c>
       <c r="AH5">
-        <v>-0.000881004881004881</v>
+        <v>-0.006975726975726976</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -998,103 +998,103 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3642365682365682</v>
+        <v>0.2470701070701071</v>
       </c>
       <c r="C6">
-        <v>0.103007227007227</v>
+        <v>0.103982071982072</v>
       </c>
       <c r="D6">
-        <v>-0.1785938025938026</v>
+        <v>-0.1636169716169716</v>
       </c>
       <c r="E6">
-        <v>-0.4913779073779074</v>
+        <v>-0.5283956643956644</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>-0.07133518733518733</v>
+        <v>-0.07036907836907837</v>
       </c>
       <c r="H6">
-        <v>-0.03464650664650665</v>
+        <v>-0.032997368997369</v>
       </c>
       <c r="I6">
-        <v>-0.003554259554259554</v>
+        <v>-0.003437247437247437</v>
       </c>
       <c r="J6">
-        <v>-0.02716401916401916</v>
+        <v>-0.02618450618450618</v>
       </c>
       <c r="K6">
-        <v>-0.002690618690618691</v>
+        <v>-0.001027345027345027</v>
       </c>
       <c r="L6">
-        <v>0.01450752250752251</v>
+        <v>0.01454612654612655</v>
       </c>
       <c r="M6">
-        <v>-0.0132036972036972</v>
+        <v>-0.01217384417384417</v>
       </c>
       <c r="N6">
-        <v>0.005936981936981937</v>
+        <v>0.003307251307251307</v>
       </c>
       <c r="O6">
-        <v>-0.02487555687555688</v>
+        <v>-0.02940610140610141</v>
       </c>
       <c r="P6">
-        <v>0.03353963753963754</v>
+        <v>0.03182127182127182</v>
       </c>
       <c r="Q6">
-        <v>-0.03617494817494817</v>
+        <v>-0.0371997611997612</v>
       </c>
       <c r="R6">
-        <v>-0.06271572271572272</v>
+        <v>-0.06373806373806373</v>
       </c>
       <c r="S6">
-        <v>-0.01977759177759178</v>
+        <v>-0.01788800988800989</v>
       </c>
       <c r="T6">
-        <v>-0.05578867978867979</v>
+        <v>-0.05520568320568321</v>
       </c>
       <c r="U6">
-        <v>-0.008093096093096093</v>
+        <v>-0.007751767751767752</v>
       </c>
       <c r="V6">
-        <v>0.006734754734754734</v>
+        <v>0.006673782673782673</v>
       </c>
       <c r="W6">
-        <v>0.01195610395610396</v>
+        <v>0.01173928773928774</v>
       </c>
       <c r="X6">
-        <v>0.02846263646263646</v>
+        <v>0.02627209427209427</v>
       </c>
       <c r="Y6">
-        <v>-0.02014076014076014</v>
+        <v>-0.02379491979491979</v>
       </c>
       <c r="Z6">
-        <v>-0.9656329616329616</v>
+        <v>-0.9642498282498283</v>
       </c>
       <c r="AA6">
-        <v>-0.04566021366021366</v>
+        <v>-0.03926863526863527</v>
       </c>
       <c r="AB6">
-        <v>0.01171005571005571</v>
+        <v>0.01496648696648697</v>
       </c>
       <c r="AC6">
-        <v>0.2525388965388966</v>
+        <v>0.2545083505083505</v>
       </c>
       <c r="AD6">
-        <v>0.01240906840906841</v>
+        <v>0.01167406767406767</v>
       </c>
       <c r="AE6">
-        <v>-0.0008764808764808765</v>
+        <v>0.0004900804900804901</v>
       </c>
       <c r="AF6">
-        <v>-0.0354031914031914</v>
+        <v>-0.03424597024597024</v>
       </c>
       <c r="AG6">
-        <v>0.009496365496365497</v>
+        <v>0.007650595650595651</v>
       </c>
       <c r="AH6">
-        <v>-0.02693887493887494</v>
+        <v>-0.03082847482847483</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1102,19 +1102,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.02507527307527307</v>
+        <v>-0.0012000852000852</v>
       </c>
       <c r="C7">
-        <v>-0.01131586731586732</v>
+        <v>-0.01102891102891103</v>
       </c>
       <c r="D7">
-        <v>0.01631424431424431</v>
+        <v>0.01127919527919528</v>
       </c>
       <c r="E7">
-        <v>0.069995961995962</v>
+        <v>0.06164925764925765</v>
       </c>
       <c r="F7">
-        <v>-0.07133518733518733</v>
+        <v>-0.07036907836907837</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1206,19 +1206,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.1051430371430371</v>
+        <v>-0.111951447951448</v>
       </c>
       <c r="C8">
-        <v>-0.007934323934323934</v>
+        <v>-0.01504866304866305</v>
       </c>
       <c r="D8">
-        <v>-0.05125347925347926</v>
+        <v>-0.04754546354546355</v>
       </c>
       <c r="E8">
-        <v>0.007219459219459219</v>
+        <v>0.01056975456975457</v>
       </c>
       <c r="F8">
-        <v>-0.03464650664650665</v>
+        <v>-0.032997368997369</v>
       </c>
       <c r="G8">
         <v>0.007067527067527068</v>
@@ -1310,19 +1310,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01723168123168123</v>
+        <v>0.01837317037317037</v>
       </c>
       <c r="C9">
-        <v>0.5721514881514882</v>
+        <v>0.6254840054840055</v>
       </c>
       <c r="D9">
-        <v>-0.09876438276438276</v>
+        <v>-0.1108837228837229</v>
       </c>
       <c r="E9">
-        <v>0.1793568593568594</v>
+        <v>0.191043587043587</v>
       </c>
       <c r="F9">
-        <v>-0.003554259554259554</v>
+        <v>-0.003437247437247437</v>
       </c>
       <c r="G9">
         <v>0.0009671049671049671</v>
@@ -1414,19 +1414,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.05186810786810787</v>
+        <v>-0.03254758454758454</v>
       </c>
       <c r="C10">
-        <v>0.003264411264411264</v>
+        <v>-0.005405429405429405</v>
       </c>
       <c r="D10">
-        <v>0.05453910653910654</v>
+        <v>0.0480957120957121</v>
       </c>
       <c r="E10">
-        <v>0.02329358329358329</v>
+        <v>0.01628027228027228</v>
       </c>
       <c r="F10">
-        <v>-0.02716401916401916</v>
+        <v>-0.02618450618450618</v>
       </c>
       <c r="G10">
         <v>0.00234015834015834</v>
@@ -1518,19 +1518,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.05858000258000258</v>
+        <v>-0.06111574911574912</v>
       </c>
       <c r="C11">
-        <v>0.01269264069264069</v>
+        <v>0.01652344052344052</v>
       </c>
       <c r="D11">
-        <v>0.0184004584004584</v>
+        <v>0.02506148506148506</v>
       </c>
       <c r="E11">
-        <v>0.02986756186756187</v>
+        <v>0.01784297384297384</v>
       </c>
       <c r="F11">
-        <v>-0.002690618690618691</v>
+        <v>-0.001027345027345027</v>
       </c>
       <c r="G11">
         <v>0.01380907380907381</v>
@@ -1622,19 +1622,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02789178389178389</v>
+        <v>0.0434986274986275</v>
       </c>
       <c r="C12">
-        <v>0.01294648894648895</v>
+        <v>0.02447522447522447</v>
       </c>
       <c r="D12">
-        <v>0.02858564858564859</v>
+        <v>0.01992117192117192</v>
       </c>
       <c r="E12">
-        <v>0.006926730926730927</v>
+        <v>-0.004117516117516117</v>
       </c>
       <c r="F12">
-        <v>0.01450752250752251</v>
+        <v>0.01454612654612655</v>
       </c>
       <c r="G12">
         <v>0.04491608091608092</v>
@@ -1726,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.0724040404040404</v>
+        <v>-0.08502158502158502</v>
       </c>
       <c r="C13">
-        <v>-0.002399450399450399</v>
+        <v>0.007416655416655417</v>
       </c>
       <c r="D13">
-        <v>0.159977763977764</v>
+        <v>0.1712510912510913</v>
       </c>
       <c r="E13">
-        <v>0.04143871743871744</v>
+        <v>0.04695346695346695</v>
       </c>
       <c r="F13">
-        <v>-0.0132036972036972</v>
+        <v>-0.01217384417384417</v>
       </c>
       <c r="G13">
         <v>-0.04308007908007908</v>
@@ -1830,19 +1830,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.1214857934857935</v>
+        <v>-0.04001662001662001</v>
       </c>
       <c r="C14">
-        <v>-0.02535296535296535</v>
+        <v>-0.03071893871893872</v>
       </c>
       <c r="D14">
-        <v>0.6554935874935875</v>
+        <v>0.6556420156420156</v>
       </c>
       <c r="E14">
-        <v>-0.03490693090693091</v>
+        <v>-0.00924003324003324</v>
       </c>
       <c r="F14">
-        <v>0.005936981936981937</v>
+        <v>0.003307251307251307</v>
       </c>
       <c r="G14">
         <v>0.01511738711738712</v>
@@ -1934,19 +1934,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.05593050793050793</v>
+        <v>-0.003687771687771688</v>
       </c>
       <c r="C15">
-        <v>-0.09559711159711159</v>
+        <v>-0.001924753924753925</v>
       </c>
       <c r="D15">
-        <v>0.0207021567021567</v>
+        <v>-0.002708270708270708</v>
       </c>
       <c r="E15">
-        <v>-0.107997695997696</v>
+        <v>-0.002883434883434883</v>
       </c>
       <c r="F15">
-        <v>-0.02487555687555688</v>
+        <v>-0.02940610140610141</v>
       </c>
       <c r="G15">
         <v>-0.01886572286572287</v>
@@ -2038,19 +2038,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04375842775842776</v>
+        <v>0.03211544011544012</v>
       </c>
       <c r="C16">
-        <v>-0.005925365925365926</v>
+        <v>0.006542262542262542</v>
       </c>
       <c r="D16">
-        <v>0.0187993267993268</v>
+        <v>0.01345911745911746</v>
       </c>
       <c r="E16">
-        <v>-0.002895206895206895</v>
+        <v>-0.01974304374304374</v>
       </c>
       <c r="F16">
-        <v>0.03353963753963754</v>
+        <v>0.03182127182127182</v>
       </c>
       <c r="G16">
         <v>0.01828563028563028</v>
@@ -2142,19 +2142,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09556454356454357</v>
+        <v>0.1524678444678445</v>
       </c>
       <c r="C17">
-        <v>0.1692830532830533</v>
+        <v>0.1621729621729622</v>
       </c>
       <c r="D17">
-        <v>0.03320844920844921</v>
+        <v>0.0140989340989341</v>
       </c>
       <c r="E17">
-        <v>0.02191256191256191</v>
+        <v>0.0405954045954046</v>
       </c>
       <c r="F17">
-        <v>-0.03617494817494817</v>
+        <v>-0.0371997611997612</v>
       </c>
       <c r="G17">
         <v>-0.0411973371973372</v>
@@ -2246,19 +2246,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1913765153765154</v>
+        <v>-0.1184824424824425</v>
       </c>
       <c r="C18">
-        <v>-0.003667083667083667</v>
+        <v>-0.01370516570516571</v>
       </c>
       <c r="D18">
-        <v>0.3947721587721588</v>
+        <v>0.385039537039537</v>
       </c>
       <c r="E18">
-        <v>-0.005146577146577147</v>
+        <v>0.00681004281004281</v>
       </c>
       <c r="F18">
-        <v>-0.06271572271572272</v>
+        <v>-0.06373806373806373</v>
       </c>
       <c r="G18">
         <v>0.01486673086673087</v>
@@ -2350,19 +2350,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01648559248559249</v>
+        <v>0.03990617190617191</v>
       </c>
       <c r="C19">
-        <v>-0.06297709497709497</v>
+        <v>-0.06995112995112995</v>
       </c>
       <c r="D19">
-        <v>0.4703534183534184</v>
+        <v>0.4861415821415822</v>
       </c>
       <c r="E19">
-        <v>0.05416066216066216</v>
+        <v>0.05063731463731463</v>
       </c>
       <c r="F19">
-        <v>-0.01977759177759178</v>
+        <v>-0.01788800988800989</v>
       </c>
       <c r="G19">
         <v>0.02354589554589554</v>
@@ -2454,19 +2454,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.02965022965022965</v>
+        <v>-0.04491724491724491</v>
       </c>
       <c r="C20">
-        <v>-0.03596639996639996</v>
+        <v>-0.02478898878898879</v>
       </c>
       <c r="D20">
-        <v>-0.0002388602388602389</v>
+        <v>0.004348072348072348</v>
       </c>
       <c r="E20">
-        <v>0.07223266823266823</v>
+        <v>0.06928694128694128</v>
       </c>
       <c r="F20">
-        <v>-0.05578867978867979</v>
+        <v>-0.05520568320568321</v>
       </c>
       <c r="G20">
         <v>0.06232009432009432</v>
@@ -2558,19 +2558,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.6608866928866929</v>
+        <v>-0.6933072813072813</v>
       </c>
       <c r="C21">
-        <v>0.5764818484818485</v>
+        <v>0.6153921033921034</v>
       </c>
       <c r="D21">
-        <v>0.04041482841482841</v>
+        <v>0.04086482886482887</v>
       </c>
       <c r="E21">
-        <v>0.1778390738390739</v>
+        <v>0.1606807846807847</v>
       </c>
       <c r="F21">
-        <v>-0.008093096093096093</v>
+        <v>-0.007751767751767752</v>
       </c>
       <c r="G21">
         <v>0.006152334152334152</v>
@@ -2662,19 +2662,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.0126030846030846</v>
+        <v>0.006684834684834685</v>
       </c>
       <c r="C22">
-        <v>0.03668725268725269</v>
+        <v>0.03971375171375172</v>
       </c>
       <c r="D22">
-        <v>-0.0298011658011658</v>
+        <v>-0.02620437820437821</v>
       </c>
       <c r="E22">
-        <v>-0.01302808902808903</v>
+        <v>-0.02045904845904846</v>
       </c>
       <c r="F22">
-        <v>0.006734754734754734</v>
+        <v>0.006673782673782673</v>
       </c>
       <c r="G22">
         <v>-0.0837004677004677</v>
@@ -2766,19 +2766,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.005066345066345066</v>
+        <v>0.002632910632910633</v>
       </c>
       <c r="C23">
-        <v>-0.02537154137154137</v>
+        <v>-0.03259280059280059</v>
       </c>
       <c r="D23">
-        <v>0.01336513336513337</v>
+        <v>0.006740430740430741</v>
       </c>
       <c r="E23">
-        <v>-0.01503194703194703</v>
+        <v>-0.01273039273039273</v>
       </c>
       <c r="F23">
-        <v>0.01195610395610396</v>
+        <v>0.01173928773928774</v>
       </c>
       <c r="G23">
         <v>0.01762546162546163</v>
@@ -2870,19 +2870,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1117026397026397</v>
+        <v>0.272984432984433</v>
       </c>
       <c r="C24">
-        <v>-0.3708013068013068</v>
+        <v>-0.3522625722625722</v>
       </c>
       <c r="D24">
-        <v>0.03383342183342183</v>
+        <v>-0.003092895092895093</v>
       </c>
       <c r="E24">
-        <v>0.06474670074670075</v>
+        <v>-0.06680645480645481</v>
       </c>
       <c r="F24">
-        <v>0.02846263646263646</v>
+        <v>0.02627209427209427</v>
       </c>
       <c r="G24">
         <v>-0.008087024087024088</v>
@@ -2974,19 +2974,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08397081597081597</v>
+        <v>0.1732185052185052</v>
       </c>
       <c r="C25">
-        <v>0.02744409944409944</v>
+        <v>0.02797125997125997</v>
       </c>
       <c r="D25">
-        <v>0.03306005706005706</v>
+        <v>0.006896538896538897</v>
       </c>
       <c r="E25">
-        <v>0.08388019188019188</v>
+        <v>0.07281280881280881</v>
       </c>
       <c r="F25">
-        <v>-0.02014076014076014</v>
+        <v>-0.02379491979491979</v>
       </c>
       <c r="G25">
         <v>0.04504647304647304</v>
@@ -3078,19 +3078,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.3486568926568926</v>
+        <v>-0.2060967740967741</v>
       </c>
       <c r="C26">
-        <v>-0.1146897666897667</v>
+        <v>-0.1168766008766009</v>
       </c>
       <c r="D26">
-        <v>0.1761211641211641</v>
+        <v>0.1557738477738478</v>
       </c>
       <c r="E26">
-        <v>0.4828782028782029</v>
+        <v>0.5297654057654058</v>
       </c>
       <c r="F26">
-        <v>-0.9656329616329616</v>
+        <v>-0.9642498282498283</v>
       </c>
       <c r="G26">
         <v>0.06554629754629755</v>
@@ -3182,19 +3182,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1786960906960907</v>
+        <v>-0.3005124965124965</v>
       </c>
       <c r="C27">
-        <v>-0.09247707247707247</v>
+        <v>-0.1479546879546879</v>
       </c>
       <c r="D27">
-        <v>0.1643984243984244</v>
+        <v>0.2216025416025416</v>
       </c>
       <c r="E27">
-        <v>0.4161437001437002</v>
+        <v>0.5965349125349125</v>
       </c>
       <c r="F27">
-        <v>-0.04566021366021366</v>
+        <v>-0.03926863526863527</v>
       </c>
       <c r="G27">
         <v>-0.004333744333744334</v>
@@ -3286,19 +3286,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0147958947958948</v>
+        <v>0.006867870867870868</v>
       </c>
       <c r="C28">
-        <v>0.01913659913659914</v>
+        <v>0.02287461487461488</v>
       </c>
       <c r="D28">
-        <v>0.1166104646104646</v>
+        <v>0.1337573897573898</v>
       </c>
       <c r="E28">
-        <v>0.1085825285825286</v>
+        <v>0.1129309009309009</v>
       </c>
       <c r="F28">
-        <v>0.01171005571005571</v>
+        <v>0.01496648696648697</v>
       </c>
       <c r="G28">
         <v>0.03506233106233106</v>
@@ -3390,19 +3390,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.04828198828198828</v>
+        <v>0.07346618546618547</v>
       </c>
       <c r="C29">
-        <v>-0.01936459936459936</v>
+        <v>-0.03198708798708799</v>
       </c>
       <c r="D29">
-        <v>-0.006536778536778537</v>
+        <v>-0.01274360474360474</v>
       </c>
       <c r="E29">
-        <v>-0.04313128313128313</v>
+        <v>-0.03561824361824362</v>
       </c>
       <c r="F29">
-        <v>0.2525388965388966</v>
+        <v>0.2545083505083505</v>
       </c>
       <c r="G29">
         <v>-0.04510796110796111</v>
@@ -3494,19 +3494,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.03099211899211899</v>
+        <v>0.04356481956481956</v>
       </c>
       <c r="C30">
-        <v>-0.03401167001167001</v>
+        <v>-0.02373574773574774</v>
       </c>
       <c r="D30">
-        <v>-0.01885821085821086</v>
+        <v>-0.01807530607530608</v>
       </c>
       <c r="E30">
-        <v>0.007507663507663508</v>
+        <v>-0.01127618327618328</v>
       </c>
       <c r="F30">
-        <v>0.01240906840906841</v>
+        <v>0.01167406767406767</v>
       </c>
       <c r="G30">
         <v>0.009766245766245766</v>
@@ -3598,19 +3598,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.03122062322062322</v>
+        <v>0.0216989136989137</v>
       </c>
       <c r="C31">
-        <v>0.01255830055830056</v>
+        <v>0.02640997440997441</v>
       </c>
       <c r="D31">
-        <v>-0.008335304335304335</v>
+        <v>-0.004682752682752683</v>
       </c>
       <c r="E31">
-        <v>0.00625012225012225</v>
+        <v>0.02297397497397497</v>
       </c>
       <c r="F31">
-        <v>-0.0008764808764808765</v>
+        <v>0.0004900804900804901</v>
       </c>
       <c r="G31">
         <v>-0.008985632985632985</v>
@@ -3702,19 +3702,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.0262946902946903</v>
+        <v>-0.05136515136515137</v>
       </c>
       <c r="C32">
-        <v>-0.01251621651621652</v>
+        <v>-0.008877872877872877</v>
       </c>
       <c r="D32">
-        <v>0.02870760470760471</v>
+        <v>0.04294576294576295</v>
       </c>
       <c r="E32">
-        <v>0.08239215439215439</v>
+        <v>0.08106758106758107</v>
       </c>
       <c r="F32">
-        <v>-0.0354031914031914</v>
+        <v>-0.03424597024597024</v>
       </c>
       <c r="G32">
         <v>0.01893771093771094</v>
@@ -3806,19 +3806,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.05386134586134586</v>
+        <v>-0.05188560388560388</v>
       </c>
       <c r="C33">
-        <v>-0.06985108585108585</v>
+        <v>-0.07418126618126618</v>
       </c>
       <c r="D33">
-        <v>-0.0468974988974989</v>
+        <v>-0.05239133239133239</v>
       </c>
       <c r="E33">
-        <v>-0.04485574485574485</v>
+        <v>-0.06595367395367395</v>
       </c>
       <c r="F33">
-        <v>0.009496365496365497</v>
+        <v>0.007650595650595651</v>
       </c>
       <c r="G33">
         <v>0.0009374649374649374</v>
@@ -3910,19 +3910,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.01684709284709285</v>
+        <v>-0.03433699033699034</v>
       </c>
       <c r="C34">
-        <v>-0.1007503847503848</v>
+        <v>-0.113012297012297</v>
       </c>
       <c r="D34">
-        <v>0.04208681408681408</v>
+        <v>0.04536582936582936</v>
       </c>
       <c r="E34">
-        <v>-0.000881004881004881</v>
+        <v>-0.006975726975726976</v>
       </c>
       <c r="F34">
-        <v>-0.02693887493887494</v>
+        <v>-0.03082847482847483</v>
       </c>
       <c r="G34">
         <v>-0.01662877662877663</v>
